--- a/finetuning/it_datasets/qa_dataset/qa_it_bekalta_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_bekalta_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,55 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a great Cafe spot, check out Salon de The l'AQUARIUM located at Salon de The l'AQUARIUM, Bekalta. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.846993, 10.1627175. For more details, visit their website or call them at 97 097 128.</t>
+          <t>Nestled in the heart of Bekalta, Salon de The l'AQUARIUM invites you to indulge in a cozy and serene atmosphere. This popular cafe boasts a 4.1-star rating, showcasing its excellence in providing delightful culinary experiences. Open from 7 AM to midnight every day, it offers a welcoming space to savor your favorite coffee creations and delectable treats.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly-rated Cafe spot with a wide selection of options and a top rating of 4.1?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Bekalta and visit local markets for souvenirs and handicrafts.
+Mid-Morning: Enjoy a delicious breakfast at Cafe Down Town, known for its top-rated tea and cozy ambiance.
+Midday: Visit Salines de la Bekalta, an aquaculture farm, to learn about the region's aquaculture industry.
+Afternoon: Indulge in mouthwatering chicken wings and other local delicacies at BERICH, renowned for its exceptional flavors.
+Evening: Take a scenic sunset stroll along the boulevard de l'environnement, admiring the picturesque surroundings.
+Night: Experience the vibrant nightlife at Societe Rahma Text, a popular discotheque, and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**CAFE SPORT** is a cafe located in Bekalta, Tunisia, offering a cozy atmosphere and delicious refreshments. Its exact location can be found at coordinates (35.6157795, 10.9908605), making it a convenient spot for locals and visitors alike.
+Restaurant Thapsus (Restaurant Du Port De Bekalta ) is a 4.5-star restaurant located in Bekalta. It is open every day from 10:00-22:00 and offers a variety of dishes. The restaurant is located at the coordinates (49.4033805, 3.1134214).
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -774,12 +822,55 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, be sure to check out Restaurant Thapsus (Restaurant Du Port De Bekalta ) at J2FX+C3C. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. It's open from 10:00-22:00 on weekdays. To get there, use these GPS coordinates: 49.4033805, 3.1134214. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Thapsus+%28Restaurant+Du+Port+De+Bekalta+%29/data=!4m7!3m6!1s0x13023cf5597d1eb1:0x3d2b8865c12e2e47!8m2!3d35.6235518!4d11.0476277!16s%2Fg%2F11g9r5y0nm!19sChIJsR59WfU8AhMRRy4uwWWIKz0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant Thapsus (Restaurant Du Port De Bekalta) is a restaurant located in Bekalta, Tunisia, coordinates (49.4033805, 3.1134214). Open from 10:00-22:00, the restaurant has an average rating of 4.5 based on 13 reviews.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant in Bekalta, notable for its exceptional 4.5 rating and inviting atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Cafe Habbechi Mohamed Ali Chraf, known for its friendly atmosphere and delectable snacks.
+Mid-Morning: Indulge in an exquisite dining experience at the highly-rated CHAPATI LOUSIF, where you can savor authentic local cuisine.
+Midday: Visit the historic Bekalta train station, offering a glimpse into the region's transportation system.
+Afternoon: Escape to the tranquil Salines de la Bekalta aquaculture farm, where you can witness the intricacies of the industry and witness the mesmerizing beauty of the salt flats.
+Evening: Head to the vibrant Societe Rahma Text discotheque for an unforgettable night of dancing and music.
+Night: Conclude the day at Pizzeria CEZAR, savoring the flavors of authentic Italian cuisine and reminiscing about your memorable Bekalta adventure.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Habbechi Mohamed Ali Chraf. is a cafe located in bekalta, Tunisia, at the coordinates (35.6157795, 10.9908605). The cafe is open from 7:00 am to 3:00 am and offers a variety of services, including coffee, tea, and snacks. The cafe has received a 4.3 out of 5 star rating from customers, who have praised its friendly staff and delicious food.
+CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -881,13 +972,55 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in bekalta and searching for something to do, look no further than Hamada cafe, located at JX9V+V7M Hamada cafe, Bekalta. 
-This highly-rated spot is ideal for Cafe lovers with an impressive 4.0 rating. Open from 05:00-20:00, it offers a great time. For more information, visit their website at or call them at .</t>
+          <t>Hamada Cafe, located in Bekalta (coordinates: 35.6196426, 10.9932287), is a cozy cafe with a 4.0 rating based on 12 reviews. Operating from 5 AM to 8 PM, it offers a delightful ambiance for you to enjoy a cup of coffee or a light meal.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Which highly-rated cafe in Bekalta offers a great experience for Cafe lovers, inviting visitors to enjoy its offerings from dawn to dusk?</t>
+          <t>Day Plan:
+Morning: Exploring Salines de la Bekalta
+Mid-Morning: Trying local cuisine at BERICH
+Midday: Visiting Societe Rahma Text, a lively discotheque
+Afternoon: Enjoying a relaxing walk at Bekalta train station
+Evening: Having dinner at Rays, a 5-star restaurant
+Night: Heading to Ottimo Pizza for a slice of pizza</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Massous Cafe, located at JX8Q+MQ6 in Bekalta, is a highly rated cafe with a 4.7-star rating out of 7 reviews. Open from 6 am to 11 pm, the cafe offers a cozy and inviting ambiance for locals and visitors alike.
+Rays is a 5-star restaurant located in Bekalta, Tunisia. Its exact location is at (35.6157795, 10.9908605) and its address is JX9R+2G7, Unnamed Road,, Bekalta.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -993,12 +1126,55 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a cozy cafe, check out Pavillon Bleu located at J28W+F3C. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day, so you can enjoy a cup of coffee or tea anytime. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, call them at 98 277 114.</t>
+          <t>Pavillon Bleu, located at J28W+F3C pavillon bleu in Bekalta (coordinates: 35.6157795, 10.9908605), is a cafe that provides a 24/7 service. Despite the lack of a description, the cafe has received 8 reviews and boasts an impressive 4.9 rating.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with extended hours and a cozy atmosphere in Bekalta?</t>
+          <t>Day Plan:
+Morning: Explore the Aquaculture Industry at Salines de la Bekalta
+Mid-Morning: Try Local Cuisine at CHAPATI LOUSIF
+Midday: Enjoy Scenic Views at the Bekalta Train Station
+Afternoon: Visit Baghdadi Touta Bus Station to Immerse in Local Transportation
+Evening: Engage in Outdoor Activities at Pavillon Bleu
+Night: Dance the Night Away at Societe Rahma Text</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavillon Bleu, located at J28W+F3C pavillon bleu in Bekalta (coordinates: 35.6157795, 10.9908605), is a cafe that provides a 24/7 service. Despite the lack of a description, the cafe has received 8 reviews and boasts an impressive 4.9 rating.
+CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1276,61 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a fantastic cafe experience, head to Massous Cafe on JX8Q+MQ6 Massous Cafe. With a stellar rating of 4.7, it's a haven for cafe enthusiasts. The cafe is open daily from 6 AM to 11 PM, so you can enjoy their delicious offerings at your convenience. To get there, you can refer to the coordinates (35.6157795, 10.9908605). Their website and phone number are currently unavailable, but you can visit the cafe to learn more and experience their delectable offerings firsthand.</t>
+          <t>Massous Cafe, located at JX8Q+MQ6 in Bekalta, is a highly rated cafe with a 4.7-star rating out of 7 reviews. Open from 6 am to 11 pm, the cafe offers a cozy and inviting ambiance for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with extended hours in Bekalta that's a favorite among cafe lovers?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the historical Bekalta train station.
+**Mid-Morning:**
+* Try local cuisine at the highly-rated restaurant CHAPATI LOUSIF.
+**Midday:**
+* Visit the Salines de la Bekalta aquaculture farm to learn about the local industry.
+**Afternoon:**
+* Enjoy a scenic walk along the beach at a nearby park.
+**Evening:**
+* Shop for souvenirs at the local market.
+**Night:**
+* Dance the night away at Societe Rahma Text, a lively discotheque.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Port Bekalta is a cafe located in Bekalta, Tunisia. It has a 5.0 rating based on 1 review and is open 24 hours a day.
+CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1436,55 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a cozy spot to unwind, take a break at Salon De The Kenza, located at JX4X+RC5, Avenue Bahri Brigui. This well-regarded cafe offers a welcoming ambiance for those seeking a delightful coffee experience. With a rating of 4.2, it's a must-visit for cafe enthusiasts. Their hours of operation are from 7:00 AM to 1:01 AM, providing ample time to savor your favorite beverages. To get there, use the GPS coordinates: latitude 35.6157795, longitude 10.9908605. For further details, you can contact them at 51 019 983.</t>
+          <t>Salon De The Kenza is a popular café located in Bekalta, Tunisia. With a 4.2 rating from 6 reviews, this café is known for offering a variety of beverages and snacks. It is situated on avenue bahri brigui (coordinates 35.6157795, 10.9908605) and is open daily from 7 am to 1 am.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a welcoming café with a cozy ambiance and a high rating in Bekalta, perfect for a relaxing break during your travels?</t>
+          <t>Day Plan:
+Morning: Exploring Salines de la Bekalta
+Mid-Morning: Trying local cuisine at Cafe Mahata
+Midday: Visiting El Gabiano
+Afternoon: Enjoying the scenic views at Bekalta Train Station
+Evening: Participating in a dance party at Societe Rahma Text
+Night: Relaxing with a cup of tea at Cafe Down Town</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Mahata** is a cafe located in Bekalta, Tunisia. It is open from 5am to midnight, 7 days a week. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is rated 4.0 out of 5 stars on Google.
+El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1318,14 +1586,55 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Cafe Habbechi Mohamed Ali Chraf. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-03:00. To get there, use these GPS coordinates: 35.6157795, 10.9908605.</t>
+          <t>Cafe Habbechi Mohamed Ali Chraf. is a cafe located in bekalta, Tunisia, at the coordinates (35.6157795, 10.9908605). The cafe is open from 7:00 am to 3:00 am and offers a variety of services, including coffee, tea, and snacks. The cafe has received a 4.3 out of 5 star rating from customers, who have praised its friendly staff and delicious food.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Café destination with diverse Café offerings in Bekalta?</t>
+          <t>Day Plan:
+Morning: Exploring Salines de la Bekalta, an aquaculture farm with a 3.8-star rating.
+Mid-Morning: Trying local cuisine at BERICH, a highly-rated restaurant specializing in delectable chicken wings.
+Midday: Relaxing with a scenic walk along the waterfront at El Gabiano, a restaurant offering a variety of dishes with a focus on seafood.
+Afternoon: Shopping at Cafe Down Town, a tea room with a 5.0 rating out of 3 reviews.
+Evening: Enjoying a traditional Tunisian dinner at Massous Cafe, a highly rated cafe with a cozy ambiance and a 4.7-star rating out of 7 reviews.
+Night: Participating in a lively dancing experience at Societe Rahma Text, a discotheque with a 4.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Massous Cafe, located at JX8Q+MQ6 in Bekalta, is a highly rated cafe with a 4.7-star rating out of 7 reviews. Open from 6 am to 11 pm, the cafe offers a cozy and inviting ambiance for locals and visitors alike.
+El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1423,13 +1732,61 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a great place to relax, visit Cafe Down Town at JX9V+MVW Cafe Down Town, Bekalta. 
-This top-rated tea room has a rating of 5.0 and is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Down+Town/data=!4m7!3m6!1s0x13023d646ccb29d5:0x5485961ac491e36d!8m2!3d35.6193022!4d10.9946958!16s%2Fg%2F11t7fcnqcr!19sChIJ1SnLbGQ9AhMRbeORxBqWhVQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find the highly-rated Cafe Down Town, known for its relaxing ambiance?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque Salines de la Bekalta aquaculture farm (30 minutes)
+**Mid-Morning:**
+* Visit the Bekalta train station, an important transportation hub (15 minutes)
+**Midday:**
+* Enjoy a delicious seafood lunch at El Gabiano restaurant (1 hour)
+**Afternoon:**
+* Indulge in mouthwatering chicken wings at the highly rated BERICH restaurant (1 hour)
+**Evening:**
+* Take a leisurely walk along the waterfront, admiring the scenic views of the Mediterranean Sea (30 minutes)
+**Night:**
+* Experience the vibrant nightlife at Societe Rahma Text, a lively discotheque (2 hours)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavillon Bleu, located at J28W+F3C pavillon bleu in Bekalta (coordinates: 35.6157795, 10.9908605), is a cafe that provides a 24/7 service. Despite the lack of a description, the cafe has received 8 reviews and boasts an impressive 4.9 rating.
+El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1527,12 +1884,55 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Cafe restau La Perla located at J2CW+QM Cafe restau La Perla, Bekalta. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.6157795, 10.9908605.</t>
+          <t>Cafe restau La Perla is a cafe located in Bekalta, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located at the coordinates (35.6157795, 10.9908605) and is open from 7:00 AM to 12:00 AM every day.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly-rated Cafe restau with a 5.0 rating and top-rated ambiance for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Salines de la Bekalta aquaculture farm and learn about the local aquaculture industry.
+Mid-Morning: Enjoy a light meal and a cup of coffee at Hamada Cafe while taking in the cozy ambiance.
+Midday: Dine at Thapsus to indulge in authentic local cuisine and enjoy the highly-rated dining experience.
+Afternoon: Visit the bustling Societe Rahma Text discotheque for an unforgettable and vibrant afternoon of dancing.
+Evening: Take a leisurely stroll through Bekalta and explore its charming streets, offering glimpses of local life and culture.
+Night: Head to BERICH for a late-night treat and savor their renowned chicken wings to end the perfect day on a satisfying note.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hamada Cafe, located in Bekalta (coordinates: 35.6196426, 10.9932287), is a cozy cafe with a 4.0 rating based on 12 reviews. Operating from 5 AM to 8 PM, it offers a delightful ambiance for you to enjoy a cup of coffee or a light meal.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1634,12 +2034,55 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a great Cafe, be sure to check out Cafe Port Bekalta at J2FX+G74. Rated 5.0, this top destination is a must-visit for Cafe lovers. It's open 24/7, so you can stop by anytime. To get there, use these GPS coordinates: 35.61739, 10.99466.</t>
+          <t>Café Port Bekalta is a cafe located in Bekalta, Tunisia. It has a 5.0 rating based on 1 review and is open 24 hours a day.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly-rated 24/7 cafe with precise GPS coordinates of 35.61739, 10.99466?</t>
+          <t>Day Plan:
+Morning: Explore the Salines de la Bekalta aquaculture farm, learning about the local aquaculture industry.
+Mid-Morning: Visit the Rays restaurant for a 5-star dining experience and savor the flavors of Bekalta cuisine.
+Midday: Relax and enjoy a cup of coffee at the highly-rated Sunset Coffee cafe, taking in the local ambiance.
+Afternoon: Engage in outdoor activities like hiking or biking at [Nearby Park].
+Evening: Participate in the lively atmosphere at Societe Rahma Text discotheque, dancing the night away.
+Night: Sample the delectable chicken wings at BERICH, a highly-rated restaurant specializing in this dish.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunset Coffee, an excellent cafe located in Bekalta, is highly rated by its visitors. Its precise coordinates are (35.6157795, 10.9908605). This cafe stands out as a popular destination in the area.
+Rays is a 5-star restaurant located in Bekalta, Tunisia. Its exact location is at (35.6157795, 10.9908605) and its address is JX9R+2G7, Unnamed Road,, Bekalta.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1737,12 +2180,55 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a great cafe, Sunset Coffee is the place for you! Located at JX8Q+244, this top-rated destination is perfect for those who love cafes. With a rating of 5.0, it's a must-visit spot. It's open during regular business hours, but check their website or call them for more details.</t>
+          <t>Sunset Coffee, an excellent cafe located in Bekalta, is highly rated by its visitors. Its precise coordinates are (35.6157795, 10.9908605). This cafe stands out as a popular destination in the area.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a must-visit café with a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore Bekalta city center, admiring the local architecture and street life.
+Mid-Morning: Visit Salines de la Bekalta, an aquaculture farm, to learn about the local industry.
+Midday: Indulge in a delicious lunch at El Gabiano, a seafood restaurant with waterfront views.
+Afternoon: Relax and enjoy some tea and pastries at Cafe Down Town, a cozy tea room in the heart of the city.
+Evening: Take a leisurely walk along the beach, soaking up the coastal beauty.
+Night: Dance the night away at Societe Rahma Text, a lively discotheque, experiencing the local nightlife.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Massous Cafe, located at JX8Q+MQ6 in Bekalta, is a highly rated cafe with a 4.7-star rating out of 7 reviews. Open from 6 am to 11 pm, the cafe offers a cozy and inviting ambiance for locals and visitors alike.
+El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1844,12 +2330,55 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out cafe Mahata - mqh~ lmHT@ located at JX8R+947 cafe Mahata - mqh~ lmHT@, Bekalta. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: (35.6157795, 10.9908605). For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+Mahata+-+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%85%D8%AD%D8%B7%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x13023dd7b784aeb1:0xaabde4ac6842f315!8m2!3d35.6159238!4d10.9903088!16s%2Fg%2F11t6jbbkwx!19sChIJsa6Et9c9AhMRFfNCaKzkvao?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Cafe Mahata** is a cafe located in Bekalta, Tunisia. It is open from 5am to midnight, 7 days a week. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is rated 4.0 out of 5 stars on Google.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a top-rated cafe called Mahata, known for its exceptional Cafe selection and cozy ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the Cafe restau La Perla, trying local cuisine for breakfast.
+Mid-Morning: Visit the Bekalta train station for a glimpse of local transportation.
+Midday: Indulge in a delightful lunch at Restaurant Thapsus (Restaurant Du Port De Bekalta).
+Afternoon: Relax and enjoy a refreshing drink at Cafe Down Town while soaking in the local atmosphere.
+Evening: Head to Pizzeria CEZAR for a satisfying dinner, savoring authentic Italian flavors.
+Night: Experience the vibrant nightlife at Societe Rahma Text, a lively discotheque where you can dance and enjoy the music.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe restau La Perla is a cafe located in Bekalta, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located at the coordinates (35.6157795, 10.9908605) and is open from 7:00 AM to 12:00 AM every day.
+Restaurant Thapsus (Restaurant Du Port De Bekalta ) is a 4.5-star restaurant located in Bekalta. It is open every day from 10:00-22:00 and offers a variety of dishes. The restaurant is located at the coordinates (49.4033805, 3.1134214).
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1947,12 +2476,55 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for something delicious to eat, check out BERICH located at JX9W+G3J BERICH, Unnamed Road. This top-rated restaurant specializes in chicken wings and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.6157795, 10.9908605.</t>
+          <t>BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant specializing in chicken wings, open 24 hours a day, in the Bekalta area?</t>
+          <t>Day Plan:
+Morning: Exploring Bekalta town center
+Mid-Morning: Trying local cuisine at CAFE SPORT
+Midday: Visiting Salines de la Bekalta aquaculture farm
+Afternoon: Relaxing with a stroll along the waterfront at Societe Rahma Text, Unnamed Road
+Evening: Enjoying dinner and dancing the night away at Societe Rahma Text Discotheque
+Night: Experiencing the local nightlife at Pizzeria CEZAR</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**CAFE SPORT** is a cafe located in Bekalta, Tunisia, offering a cozy atmosphere and delicious refreshments. Its exact location can be found at coordinates (35.6157795, 10.9908605), making it a convenient spot for locals and visitors alike.
+El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2050,12 +2622,55 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out CAFE SPORT located at JXCW+7V6 CAFE SPORT, Bekalta. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at or call them at .</t>
+          <t>**CAFE SPORT** is a cafe located in Bekalta, Tunisia, offering a cozy atmosphere and delicious refreshments. Its exact location can be found at coordinates (35.6157795, 10.9908605), making it a convenient spot for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you enjoy delicious Cafe at a top-rated destination with a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the quaint town of Bekalta, admiring its vibrant streets and local architecture.
+Mid-Morning: Tantalize your taste buds with a delightful breakfast at the highly-rated Cafe Down Town, known for its aromatic coffee and delectable pastries.
+Midday: Step into history and delve into the captivating atmosphere of Restaurant Thapsus (Restaurant Du Port De Bekalta), savoring traditional Tunisian cuisine amidst stunning harbor views.
+Afternoon: Embark on a guided tour of Salines de la Bekalta, an esteemed aquaculture farm. Witness firsthand the intricate processes involved in cultivating marine life and gain insights into the local fishing industry.
+Evening: Indulge in a gastronomic adventure at BERICH, renowned for its finger-licking chicken wings. Let the tantalizing flavors excite your palate and soak up the lively ambiance of this popular eatery.
+Night: Experience the vibrant nightlife of Societe Rahma Text, a lively discotheque known for its infectious beats and energetic dance floor. Dance the night away and immerse yourself in the lively rhythm of Bekalta's nightlife.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Mahata** is a cafe located in Bekalta, Tunisia. It is open from 5am to midnight, 7 days a week. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is rated 4.0 out of 5 stars on Google.
+Restaurant Thapsus (Restaurant Du Port De Bekalta ) is a 4.5-star restaurant located in Bekalta. It is open every day from 10:00-22:00 and offers a variety of dishes. The restaurant is located at the coordinates (49.4033805, 3.1134214).
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2768,55 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Salines de la Bekalta located at H2CH+PXX Salines de la Bekalta, Bekalta. 
-This top-rated destination is perfect for Ferme aquacole lovers and offers a range of categories. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.61739, 10.99466.</t>
+          <t>Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>If you're seeking a memorable visit to Bekalta centered around Ferme aquacole, where can you go that's highly rated and highly reviewed?</t>
+          <t>Day Plan:
+Morning: Explore the bustling local market at Cafe Mahata, where you can savor the aroma of freshly brewed coffee and indulge in delectable pastries.
+Mid-Morning: Embark on a culinary adventure at Restaurant Thapsus, renowned for its exquisite dining experience, where you can tantalize your taste buds with authentic Tunisian cuisine.
+Midday: Visit Salines de la Bekalta, a leading aquaculture farm, and learn about the fascinating world of fish farming while immersing yourself in the serene beauty of the area.
+Afternoon: Head to Societe Rahma Text, an energetic discotheque, where you can dance to the rhythm of vibrant music and let loose in the lively atmosphere.
+Evening: Dine at the highly-rated BERICH, a culinary haven specializing in mouthwatering chicken wings, ensuring a satisfying and flavorful culinary experience.
+Night: Enjoy a stroll along the scenic shores of Bekalta, taking in the breathtaking views and embracing the tranquil ambiance as the sun sets, painting the sky in hues of gold and orange.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Mahata** is a cafe located in Bekalta, Tunisia. It is open from 5am to midnight, 7 days a week. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is rated 4.0 out of 5 stars on Google.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2258,15 +2914,61 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a reliable real estate company, check out BEKALTA.
-This top-rated destination is perfect for real estate enthusiasts and offers a range of services to choose from.
-With a rating of 4.0, it's a must-visit spot.
-For more details, visit their website at https://www.google.com/maps/place/BEKALTA/data=!4m7!3m6!1s0x13021793692dd5f9:0xd291c58d657713bf!8m2!3d35.6381064!4d10.9699468!16s%2Fg%2F11rpmb4s0l!19sChIJ-dUtaZMXAhMRvxN3ZY3FkdI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated real estate company that is a popular destination in Bekalta?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Pavillon Bleu, a 24/7 cafe with a high rating of 4.9 out of 8 reviews.
+Mid-Morning:
+- Trying local cuisine at CHAPATI LOUSIF, a highly-rated restaurant specializing in delectable dining experiences.
+Midday:
+- Visiting Salines de la Bekalta, a notable aquaculture farm offering a glimpse into the local industry.
+Afternoon:
+- Participating in a guided tour of Bekalta train station, a historical landmark with a rating of 3.8 out of 8 reviews.
+Evening:
+- Relaxing with a traditional massage at a local spa or hotel.
+Night:
+- Experiencing cultural immersion at Societe Rahma Text, a lively discotheque inviting visitors to dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavillon Bleu, located at J28W+F3C pavillon bleu in Bekalta (coordinates: 35.6157795, 10.9908605), is a cafe that provides a 24/7 service. Despite the lack of a description, the cafe has received 8 reviews and boasts an impressive 4.9 rating.
+CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2364,12 +3066,55 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a fun place to dance the night away, check out Societe Rahma Text located at JX8X+XQ9 Societe Rahma Text, Unnamed Road, Bekalta. This top-rated discotheque has a rating of 5.0, making it a must-visit spot for dance lovers. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, call them at 54 834 604.</t>
+          <t>Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly-rated discotheque with 5.0 stars?</t>
+          <t>Day Plan:
+Morning: Explore the Bekalta real estate company in Tabulbah, Tunisia.
+Mid-Morning: Try local cuisine at Restaurant Thapsus (Restaurant Du Port De Bekalta).
+Midday: Visit the Salines de la Bekalta aquaculture farm in Bekalta.
+Afternoon: Engage in outdoor activities like biking or hiking at the scenic Bekalta train station.
+Evening: Enjoy scenic views at the Baghdadi Touta bus station (STS).
+Night: Participate in a lively discotheque experience at Societe Rahma Text in Bekalta.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Kenza is a popular café located in Bekalta, Tunisia. With a 4.2 rating from 6 reviews, this café is known for offering a variety of beverages and snacks. It is situated on avenue bahri brigui (coordinates 35.6157795, 10.9908605) and is open daily from 7 am to 1 am.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2475,13 +3220,55 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a tasty meal, check out El Gabiano located at J2HR+M26 El Gabiano, Dimess, Bekalta. 
-This top-rated spot is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on [No data]. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, visit their website at [No data] or call them at 24 305 367.</t>
+          <t>El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a wide selection of categories in Bekalta, open from 8 AM to midnight?</t>
+          <t>Day Plan:
+Morning: Exploring Bekalta by foot, visiting various notable landmarks including Bekalta train station, Societe Rahma Text discotheque, and Salines de la Bekalta aquaculture farm.
+Mid-Morning: Take a guided tour of Salines de la Bekalta to learn about the local aquaculture industry and its significance.
+Midday: Try local cuisine at El Gabiano restaurant, known for its delicious seafood dishes and pleasant waterfront location.
+Afternoon: Visit Pizzeria EL BECHA for a quick lunch and enjoy the convenience of their delivery or take-out services.
+Evening: Indulge in a relaxing evening by enjoying scenic views at the beach or park in Bekalta. Witness the breathtaking sunset while immersing yourself in the tranquil ambiance.
+Night: Experience cultural immersion at Bekalta's local market, where you can engage with vendors, discover traditional crafts, and purchase souvenirs as mementos of your trip.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Kenza is a popular café located in Bekalta, Tunisia. With a 4.2 rating from 6 reviews, this café is known for offering a variety of beverages and snacks. It is situated on avenue bahri brigui (coordinates 35.6157795, 10.9908605) and is open daily from 7 am to 1 am.
+El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2583,12 +3370,55 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a top-rated Restaurant, check out Restaurant Thapsus (Restaurant Du Port De Bekalta ) located at J2FX+C3C Restaurant Thapsus (Restaurant Du Port De Bekalta ). With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 49.4033805, 3.1134214.</t>
+          <t>Restaurant Thapsus (Restaurant Du Port De Bekalta ) is a 4.5-star restaurant located in Bekalta. It is open every day from 10:00-22:00 and offers a variety of dishes. The restaurant is located at the coordinates (49.4033805, 3.1134214).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly-rated restaurant with a convenient location and memorable dining experience?</t>
+          <t>Day Plan:
+Morning: Embark on a guided tour of the Salines de la Bekalta aquaculture farm to learn about the region's aquaculture industry.
+Mid-Morning: Head to Cafe Down Town for a delightful tea break and savor the aromatic flavors of traditional Tunisian teas.
+Midday: Indulge in a tantalizing lunch at Restaurant Thapsus, relishing the authentic flavors of Tunisian cuisine while enjoying the ambiance of the port.
+Afternoon: Immerse yourself in the cultural heritage of Bekalta with a visit to Societe Rahma Text, a vibrant discotheque where you can experience the energetic dance scene.
+Evening: Stroll through the bustling market and engage in the local shopping experience, discovering unique souvenirs and handicrafts.
+Night: Conclude the day with an exquisite dinner at BERICH, the highly acclaimed restaurant renowned for its mouthwatering chicken wings.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Kenza is a popular café located in Bekalta, Tunisia. With a 4.2 rating from 6 reviews, this café is known for offering a variety of beverages and snacks. It is situated on avenue bahri brigui (coordinates 35.6157795, 10.9908605) and is open daily from 7 am to 1 am.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a restaurant located in Bekalta, Tunisia, coordinates (49.4033805, 3.1134214). Open from 10:00-22:00, the restaurant has an average rating of 4.5 based on 13 reviews.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2686,14 +3516,55 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Pizzeria CEZAR located at JX9P+8XP Pizzeria CEZAR, boulevard de l'environnement, Bekalta. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, visit their website at  or call them at .</t>
+          <t>Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly-rated Pizzeria destination (4.9 out of 5) with GPS coordinates of 35.6157795, 10.9908605?</t>
+          <t>Day Plan:
+Morning: Exploring Bekalta's real estate market at Bekalta
+Mid-Morning: Trying local cuisine at Restaurant Thapsus (Restaurant Du Port De Bekalta)
+Midday: Visiting the aquaculture farm at Salines de la Bekalta
+Afternoon: Relaxing at the beach or park and enjoying scenic views
+Evening: Participating in the nightlife at Societe Rahma Text
+Night: Trying different pizzas at Ottimo Pizza</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Port Bekalta is a cafe located in Bekalta, Tunisia. It has a 5.0 rating based on 1 review and is open 24 hours a day.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2799,14 +3670,55 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Ottimo Pizza located at JX9W+F83 Ottimo Pizza, Bekalta. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on mardi. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, call them at 23 956 390.</t>
+          <t>Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria destination open 24/7 in Bekalta?</t>
+          <t>Day Plan:
+Morning: Exploring Societe Rahma Text, a lively discotheque.
+Mid-Morning: Trying Tunisian Cuisine at Restaurant Thapsus (Restaurant Du Port De Bekalta)
+Midday: Visiting Salines de la Bekalta, a notable aquaculture farm.
+Afternoon: Taking a guided tour of Bekalta Train Station.
+Evening: Shopping for souvenirs at the Bekalta Market.
+Night: Enjoying scenic views at the Bekalta Beach.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Habbechi Mohamed Ali Chraf. is a cafe located in bekalta, Tunisia, at the coordinates (35.6157795, 10.9908605). The cafe is open from 7:00 am to 3:00 am and offers a variety of services, including coffee, tea, and snacks. The cafe has received a 4.3 out of 5 star rating from customers, who have praised its friendly staff and delicious food.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a restaurant located in Bekalta, Tunisia, coordinates (49.4033805, 3.1134214). Open from 10:00-22:00, the restaurant has an average rating of 4.5 based on 13 reviews.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2908,14 +3820,55 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in bekalta and seeking a delectable dining experience, visit CHAPATI LOUSIF, conveniently located at JX9V+5RW CHAPATI LOUSIF. 
-This highly-rated restaurant is renowned for its exceptional culinary offerings and boasts a specialization in Restaurant cuisine. 
-Rated an impressive 4.7 out of 5, it's a culinary gem not to be missed. Its operational hours are from 10:00-01:30 on weekdays, providing ample time to savor their delectable dishes. To reach CHAPATI LOUSIF, simply follow the GPS coordinates (35.6157795, 10.9908605) or give them a call at 99 166 059 for further inquiries.</t>
+          <t>CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>If you're craving an exceptional culinary experience while exploring Bekalta, which highly-rated restaurant specializing in Restaurant cuisine is conveniently located at JX9V+5RW CHAPATI LOUSIF?</t>
+          <t>Day Plan:
+Morning: Exploring Salines de la Bekalta and learning about the aquaculture industry
+Mid-Morning: Trying local cuisine at BERICH, the highly rated restaurant specializing in mouthwatering chicken wings
+Midday: Visiting Bekalta train station and immerse in the local culture
+Afternoon: Enjoying scenic views at Bekalta beach
+Evening: Participating in a lively disco party at Societe Rahma Text
+Night: Relaxing with a soothing massage at a local spa</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunset Coffee, an excellent cafe located in Bekalta, is highly rated by its visitors. Its precise coordinates are (35.6157795, 10.9908605). This cafe stands out as a popular destination in the area.
+El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3962,61 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a Restaurant, check out Rays located at JX9R+2G7 Rays, Unnamed Road,, Bekalta. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, visit their website at https://www.google.com/maps/place/Rays/data=!4m7!3m6!1s0x13023de42b50dc17:0xceafe67df4a30b79!8m2!3d35.6175442!4d10.9912976!16s%2Fg%2F11rfc9qbvh!19sChIJF9xQK-Q9AhMReQuj9H3mr84?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Rays is a 5-star restaurant located in Bekalta, Tunisia. Its exact location is at (35.6157795, 10.9908605) and its address is JX9R+2G7, Unnamed Road,, Bekalta.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>What is the exceptional restaurant in Bekalta, known for its top-rated dining experience and situated at a specific GPS location?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the charming Old Town of Bekalta
+**Mid-Morning:**
+- Visit the Salines de la Bekalta for an aquaculture experience
+**Midday:**
+- Try local cuisine at Restaurant Thapsus for a delightful dining experience
+**Afternoon:**
+- Relax and enjoy scenic views at the Bekalta Beach
+**Evening:**
+- Indulge in mouthwatering chicken wings at BERICH
+**Night:**
+- Dance the night away at Societe Rahma Text discotheque</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**CAFE SPORT** is a cafe located in Bekalta, Tunisia, offering a cozy atmosphere and delicious refreshments. Its exact location can be found at coordinates (35.6157795, 10.9908605), making it a convenient spot for locals and visitors alike.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3116,12 +4118,55 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you find yourself in bekalta seeking a delectable dining experience, look no further than Pizzeria EL BECHA, conveniently located at JX8R+669 Pizzeria EL BECHA, Avenu Ahmed Machta, Bekalta. This highly acclaimed pizzeria tantalizes taste buds with its exceptional pizzas. With a stellar rating of 5.0, this establishment is a culinary gem not to be missed. Although its operating hours are currently unavailable, Pizzeria EL BECHA remains closed on unspecified days. For further inquiries, feel free to reach out to them at 73 477 192 or visit their website (if available) for additional information.</t>
+          <t>Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you savor exceptional pizzas at Pizzeria EL BECHA, renowned for its exceptional 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Salines de la Bekalta, a renowned aquaculture farm.
+Mid-Morning: Trying local cuisine at BERICH, a highly rated restaurant specializing in delectable chicken wings.
+Midday: Visiting Pavillon Bleu, a 24/7 cafe with an impressive 4.9 rating and positive reviews.
+Afternoon: Enjoying a guided tour of Bekalta train station, a historic landmark with an informative history.
+Evening: Shopping for souvenirs and local products at a vibrant market or mall.
+Night: Experiencing cultural immersion at Societe Rahma Text, a lively discotheque where you can dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavillon Bleu, located at J28W+F3C pavillon bleu in Bekalta (coordinates: 35.6157795, 10.9908605), is a cafe that provides a 24/7 service. Despite the lack of a description, the cafe has received 8 reviews and boasts an impressive 4.9 rating.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3219,12 +4264,55 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a top-rated Restaurant specialise dans les ailes de poulet, check out BERICH. Located at JX9W+G3J BERICH, Unnamed Road, Bekalta, this destination is perfect for those who love Restaurant specialise dans les ailes de poulet. With a rating of 5.0, it's a must-visit spot. It's open 24h/24, so you can visit anytime. For more details, visit their website at https://www.google.com/maps/place/BERICH/data=!4m7!3m6!1s0x13023db47f3e4ce3:0xa1184651d0f39f46!8m2!3d35.6188341!4d10.9951332!16s%2Fg%2F11pc7ryzv1!19sChIJ40w-f7Q9AhMRRp_z0FFGGKE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated restaurant in Bekalta that specializes in chicken wings?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Salines de la Bekalta (Aquaculture Farm) and learning about the local aquaculture industry.
+Mid-Morning: Indulging in a delectable dining experience at the highly-rated CHAPATI LOUSIF restaurant.
+Midday: Visiting the Bekalta train station (Landmark) to admire its architectural beauty and witness the bustling railway atmosphere.
+Afternoon: Enjoying a relaxing afternoon at Massous Cafe (Cafe) while savoring local delicacies and immersing in the cozy ambiance.
+Evening: Embarking on a culinary adventure by trying the mouthwatering chicken wings at the highly-rated BERICH restaurant (Restaurant).
+Night: Experiencing the vibrant nightlife at Societe Rahma Text discotheque (Recreational Activity) and dancing the night away.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Massous Cafe, located at JX8Q+MQ6 in Bekalta, is a highly rated cafe with a 4.7-star rating out of 7 reviews. Open from 6 am to 11 pm, the cafe offers a cozy and inviting ambiance for locals and visitors alike.
+CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3326,13 +4414,55 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a delicious dining experience, check out Restaurant Thapsus (Restaurant Du Port De Bekalta) located at J2FX+C3C. 
-This top-rated destination is perfect for restaurant cuisine lovers and offers a range of delectable options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on undefined. To get there, use these GPS coordinates: 49.4033805, 3.1134214. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Thapsus+%28Restaurant+Du+Port+De+Bekalta+%29/data=!4m7!3m6!1s0x13023cf5597d1eb1:0x3d2b8865c12e2e47!8m2!3d35.6235518!4d11.0476277!16s%2Fg%2F11g9r5y0nm!19sChIJsR59WfU8AhMRRy4uwWWIKz0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at undefined.</t>
+          <t>Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Restaurant Thapsus (Restaurant Du Port De Bekalta) located, and why is it a must-visit spot?</t>
+          <t>Day Plan:
+Morning: Explore Salines de la Bekalta, an aquaculture farm, and learn about the region's aquaculture industry.
+Mid-Morning: Visit Rays, a 5-star restaurant, and indulge in a delightful local cuisine experience.
+Midday: Take a guided tour of Bekalta train station, exploring its historical significance and architectural beauty.
+Afternoon: Relax and rejuvenate with a massage at a local spa or hotel.
+Evening: Experience the vibrant atmosphere at Societe Rahma Text, a lively discotheque, and dance the night away.
+Night: Explore Pavillon Bleu, a 24/7 cafe, and unwind with a refreshing drink while enjoying the ambiance.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavillon Bleu, located at J28W+F3C pavillon bleu in Bekalta (coordinates: 35.6157795, 10.9908605), is a cafe that provides a 24/7 service. Despite the lack of a description, the cafe has received 8 reviews and boasts an impressive 4.9 rating.
+Rays is a 5-star restaurant located in Bekalta, Tunisia. Its exact location is at (35.6157795, 10.9908605) and its address is JX9R+2G7, Unnamed Road,, Bekalta.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3426,15 +4556,55 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a reliable transportation service, head to Baghdadi Touta bus station (STS) at Rue Baghdadi, Bekalta. 
-This top-rated destination is a must-visit spot for Service de transport lovers. 
-With a rating of 4.0, it's highly recommended. 
-For more details, visit their website or call them at the provided information.</t>
+          <t>Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly recommended and reliable transportation service, boasting a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Visiting the charming CAFE SPORT for a cozy atmosphere and delicious refreshments.
+Mid-Morning: Exploring the Salines de la Bekalta aquaculture farm to witness the region's aquaculture industry firsthand.
+Midday: Trying the delectable chicken wings at the highly-rated BERICH restaurant.
+Afternoon: Participating in a guided tour of the traditional Bekalta train station to learn about its history and significance.
+Evening: Enjoying a relaxing massage at a local spa to rejuvenate after a day of exploration.
+Night: Experiencing the lively ambiance at Societe Rahma Text, a discotheque known for its energetic dance parties.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**CAFE SPORT** is a cafe located in Bekalta, Tunisia, offering a cozy atmosphere and delicious refreshments. Its exact location can be found at coordinates (35.6157795, 10.9908605), making it a convenient spot for locals and visitors alike.
+Restaurant Thapsus (Restaurant Du Port De Bekalta) is a restaurant located in Bekalta, Tunisia, coordinates (49.4033805, 3.1134214). Open from 10:00-22:00, the restaurant has an average rating of 4.5 based on 13 reviews.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.
+Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3532,13 +4702,55 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you're in bekalta and looking for something fun to do, check out Bekalta located at Bekalta, Al-Baqalitah. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.6157795, 10.9908605. </t>
+          <t>Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Bekalta can you find a highly-rated destination with a wide selection of Gare, making it an ideal destination for Gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Start your day by visiting Salines de la Bekalta, an aquaculture farm offering an educational experience in the region's industry.
+Mid-Morning: Head to Cafe Down Town for a refreshing tea and connect with locals.
+Midday: Indulge in the highly-rated CHAPATI LOUSIF, savoring the delectable cuisine and warm ambiance.
+Afternoon: Immerse yourself in the vibrant atmosphere of Societe Rahma Text, a lively discotheque where you can dance and mingle.
+Evening: Explore the local market at Tabulbah, discovering unique souvenirs and culinary delights.
+Night: Relax and unwind at a local spa or hotel with a rejuvenating massage or treatment.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Mahata** is a cafe located in Bekalta, Tunisia. It is open from 5am to midnight, 7 days a week. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is rated 4.0 out of 5 stars on Google.
+CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3632,14 +4844,61 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a reliable Service de transport, check out Baghdadi Touta bus station (STS) located at H26C+GMH Baghdadi Touta bus station (STS), Rue Baghdadi, Bekalta. 
-This top-rated destination offers a range of Service de transport to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.57031, 11.01407. For more details, visit their website at https://www.google.com/maps/place/Baghdadi+Touta+bus+station+%28STS%29/data=!4m7!3m6!1s0x1302231b41971d17:0x1864554971cc4059!8m2!3d35.5613113!4d11.0217454!16s%2Fg%2F11lm5x48cx!19sChIJFx2XQRsjAhMRWUDMcUlVZBg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Service de transport destination in Bekalta that offers a wide selection of services and boasts a 4.0 rating?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Bekalta and admiring the stunning natural beauty of the city.
+Mid-Morning:
+- Trying local cuisine at Cafe restau La Perla for an authentic taste of Bekalta's culinary delights.
+Midday:
+- Visiting Salines de la Bekalta to discover the aquaculture industry and gain insights into the local agricultural practices.
+Afternoon:
+- Enjoying a relaxing afternoon at the beach, soaking up the sun and indulging in water sports.
+Evening:
+- Experiencing cultural immersion at the vibrant Societe Rahma Text discotheque, dancing the night away and immersing in the local nightlife.
+Night:
+- Savoring delectable Italian cuisine at the highly-rated Pizzeria CEZAR, indulging in authentic pizzas and pasta dishes.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe restau La Perla is a cafe located in Bekalta, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located at the coordinates (35.6157795, 10.9908605) and is open from 7:00 AM to 12:00 AM every day.
+CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.
+Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.
+BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.
+Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.
+Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.
+Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.
+Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.
+Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.
+Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
